--- a/Docs/114046 - guidance-v1.xlsx
+++ b/Docs/114046 - guidance-v1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Documents\Engineering\Isocodes\114046 - null - Onboard battery charger\Rev0\Release\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Working\Isoloader_TCchargerOnboardCharger\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2CDCBAF-460E-4135-9B1A-11D282EA84B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B06619E-0588-4C20-9B2F-62285B859112}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cover" sheetId="4" r:id="rId1"/>
@@ -21,7 +21,6 @@
     <sheet name="design" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -825,8 +824,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9952C962-0103-4A6B-AE25-47F5216E20CC}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -932,8 +931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D264AE07-B4A4-4D9E-96BB-745A57F9D525}">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
